--- a/zs/0715/valid_entities_0715_llama3-70b_prompt1.xlsx
+++ b/zs/0715/valid_entities_0715_llama3-70b_prompt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Working\hp-extractor\zs\0715\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5C759C-1A5D-4ABC-8F82-0FD54E2D4852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61CA37D-BA45-4E77-95B5-80AB08BD304E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25635" yWindow="0" windowWidth="10815" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25515" yWindow="0" windowWidth="11160" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities_0312_prompt1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7427" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7730" uniqueCount="2586">
   <si>
     <t>doc_id</t>
   </si>
@@ -7779,6 +7779,21 @@
   </si>
   <si>
     <t>Black-faced-spider-monkey</t>
+  </si>
+  <si>
+    <t>entity is verbatim the word, not the digit</t>
+  </si>
+  <si>
+    <t>technically not present, as verbatim entity is "otodetic manage", which appears to be a typo on Pubmed abstract from OCR and not present in original pdf scan of paper (nor strangely on plaintext abstract on publisher site). We did not instruct to correct errors, so counting as a false positive for now but this is obviously very debatable</t>
+  </si>
+  <si>
+    <t>technically not present, as verbatim entity is "sarcoptic manage", which appears to be a typo on Pubmed abstract from OCR and not present in original pdf scan of paper (nor strangely on plaintext abstract on publisher site). We did not instruct to correct errors, so counting as a false positive for now but this is obviously very debatable</t>
+  </si>
+  <si>
+    <t>sarcoptic disease is mentioned but not this specific parasite, again debatable as to whether this should reasonably be inferred from the text</t>
+  </si>
+  <si>
+    <t>should be count etc.</t>
   </si>
 </sst>
 </file>
@@ -8312,8 +8327,8 @@
   <dimension ref="A1:AA2220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1426" sqref="I1426"/>
+      <pane ySplit="1" topLeftCell="A1535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1567" sqref="I1567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32940,7 +32955,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1425" s="8">
         <v>60412</v>
       </c>
@@ -32957,7 +32972,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1426" s="8">
         <v>60412</v>
       </c>
@@ -32974,7 +32989,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1427" s="8">
         <v>60412</v>
       </c>
@@ -32991,7 +33006,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1428" s="8">
         <v>60412</v>
       </c>
@@ -33008,7 +33023,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1429" s="8">
         <v>60412</v>
       </c>
@@ -33025,7 +33040,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1430" s="8">
         <v>60412</v>
       </c>
@@ -33042,7 +33057,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1431" s="8">
         <v>60412</v>
       </c>
@@ -33059,7 +33074,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1432" s="8">
         <v>60412</v>
       </c>
@@ -33076,7 +33091,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1433" s="8">
         <v>60423</v>
       </c>
@@ -33086,8 +33101,14 @@
       <c r="C1433" s="8" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="1434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1433" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1433" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1434" s="8">
         <v>60423</v>
       </c>
@@ -33097,8 +33118,17 @@
       <c r="C1434" s="8" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="1435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1434" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1434" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1435" s="8">
         <v>60423</v>
       </c>
@@ -33108,8 +33138,14 @@
       <c r="C1435" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1435" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1435" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1436" s="8">
         <v>60423</v>
       </c>
@@ -33119,8 +33155,14 @@
       <c r="C1436" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="1437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1436" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1436" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1437" s="8">
         <v>60423</v>
       </c>
@@ -33130,8 +33172,14 @@
       <c r="C1437" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1437" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1437" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1438" s="8">
         <v>60423</v>
       </c>
@@ -33141,8 +33189,14 @@
       <c r="C1438" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="1439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1438" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1438" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1439" s="8">
         <v>60423</v>
       </c>
@@ -33152,8 +33206,14 @@
       <c r="C1439" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="1440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1439" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1439" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1440" s="8">
         <v>60423</v>
       </c>
@@ -33163,8 +33223,14 @@
       <c r="C1440" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1440" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1440" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1441" s="8">
         <v>60423</v>
       </c>
@@ -33174,8 +33240,14 @@
       <c r="C1441" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1441" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1441" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1442" s="8">
         <v>60423</v>
       </c>
@@ -33185,8 +33257,14 @@
       <c r="C1442" s="8" t="s">
         <v>2339</v>
       </c>
-    </row>
-    <row r="1443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1442" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1442" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1443" s="8">
         <v>60423</v>
       </c>
@@ -33196,8 +33274,14 @@
       <c r="C1443" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1443" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1443" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1444" s="8">
         <v>60423</v>
       </c>
@@ -33207,8 +33291,14 @@
       <c r="C1444" s="8" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="1445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1444" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1444" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1445" s="8">
         <v>60423</v>
       </c>
@@ -33218,8 +33308,17 @@
       <c r="C1445" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="1446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1445" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1445" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="I1445" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1446" s="8">
         <v>60423</v>
       </c>
@@ -33229,8 +33328,14 @@
       <c r="C1446" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1446" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1446" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1447" s="8">
         <v>60423</v>
       </c>
@@ -33240,8 +33345,14 @@
       <c r="C1447" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="1448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1447" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1447" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1448" s="8">
         <v>60444</v>
       </c>
@@ -33251,8 +33362,14 @@
       <c r="C1448" s="8" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="1449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1448" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1448" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1449" s="8">
         <v>60444</v>
       </c>
@@ -33262,8 +33379,14 @@
       <c r="C1449" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1449" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1449" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1450" s="8">
         <v>60444</v>
       </c>
@@ -33273,8 +33396,14 @@
       <c r="C1450" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1450" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1450" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1451" s="8">
         <v>60444</v>
       </c>
@@ -33284,8 +33413,14 @@
       <c r="C1451" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1451" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1451" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1452" s="8">
         <v>60444</v>
       </c>
@@ -33295,8 +33430,14 @@
       <c r="C1452" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1452" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1452" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1453" s="8">
         <v>60444</v>
       </c>
@@ -33306,8 +33447,14 @@
       <c r="C1453" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1453" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1453" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1454" s="8">
         <v>60444</v>
       </c>
@@ -33317,8 +33464,14 @@
       <c r="C1454" s="8" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="1455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1454" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1454" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1455" s="8">
         <v>60444</v>
       </c>
@@ -33328,8 +33481,14 @@
       <c r="C1455" s="8" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="1456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1455" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1455" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1456" s="8">
         <v>60444</v>
       </c>
@@ -33339,8 +33498,14 @@
       <c r="C1456" s="8" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="1457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1456" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1456" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1457" s="8">
         <v>60444</v>
       </c>
@@ -33350,8 +33515,14 @@
       <c r="C1457" s="8" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="1458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1457" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1457" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1458" s="8">
         <v>60444</v>
       </c>
@@ -33361,8 +33532,14 @@
       <c r="C1458" s="8" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="1459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1458" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1458" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1459" s="8">
         <v>60444</v>
       </c>
@@ -33372,8 +33549,14 @@
       <c r="C1459" s="8" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="1460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1459" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1459" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1460" s="8">
         <v>60444</v>
       </c>
@@ -33383,8 +33566,14 @@
       <c r="C1460" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="1461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1460" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1460" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1461" s="8">
         <v>60444</v>
       </c>
@@ -33394,8 +33583,14 @@
       <c r="C1461" s="8" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="1462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1461" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1461" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1462" s="8">
         <v>60444</v>
       </c>
@@ -33405,8 +33600,14 @@
       <c r="C1462" s="8" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="1463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1462" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1462" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1463" s="8">
         <v>60444</v>
       </c>
@@ -33416,8 +33617,14 @@
       <c r="C1463" s="8" t="s">
         <v>2345</v>
       </c>
-    </row>
-    <row r="1464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1463" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1463" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1464" s="8">
         <v>60444</v>
       </c>
@@ -33427,8 +33634,14 @@
       <c r="C1464" s="8" t="s">
         <v>2345</v>
       </c>
-    </row>
-    <row r="1465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1464" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1464" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1465" s="8">
         <v>60444</v>
       </c>
@@ -33438,8 +33651,14 @@
       <c r="C1465" s="8" t="s">
         <v>2345</v>
       </c>
-    </row>
-    <row r="1466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1465" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1465" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1466" s="8">
         <v>60444</v>
       </c>
@@ -33449,8 +33668,14 @@
       <c r="C1466" s="8" t="s">
         <v>2345</v>
       </c>
-    </row>
-    <row r="1467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1466" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1466" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1467" s="8">
         <v>60444</v>
       </c>
@@ -33460,8 +33685,14 @@
       <c r="C1467" s="8" t="s">
         <v>2347</v>
       </c>
-    </row>
-    <row r="1468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1467" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1467" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1468" s="8">
         <v>60487</v>
       </c>
@@ -33471,8 +33702,14 @@
       <c r="C1468" s="8" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="1469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1468" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1468" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1469" s="8">
         <v>60487</v>
       </c>
@@ -33482,8 +33719,14 @@
       <c r="C1469" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1469" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1469" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1470" s="8">
         <v>60487</v>
       </c>
@@ -33493,8 +33736,17 @@
       <c r="C1470" s="8" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="1471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1470" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1470" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1470" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1471" s="8">
         <v>60487</v>
       </c>
@@ -33504,8 +33756,14 @@
       <c r="C1471" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1471" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1471" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1472" s="8">
         <v>60487</v>
       </c>
@@ -33515,8 +33773,14 @@
       <c r="C1472" s="8" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="1473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1472" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1472" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1473" s="8">
         <v>60487</v>
       </c>
@@ -33526,8 +33790,14 @@
       <c r="C1473" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="1474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1473" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1473" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1474" s="8">
         <v>60487</v>
       </c>
@@ -33537,8 +33807,14 @@
       <c r="C1474" s="8" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="1475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1474" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1474" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1475" s="8">
         <v>60487</v>
       </c>
@@ -33548,8 +33824,14 @@
       <c r="C1475" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1475" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1475" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1476" s="8">
         <v>60487</v>
       </c>
@@ -33559,8 +33841,14 @@
       <c r="C1476" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1476" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1476" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1477" s="8">
         <v>60487</v>
       </c>
@@ -33570,8 +33858,14 @@
       <c r="C1477" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1477" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1477" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1478" s="8">
         <v>60487</v>
       </c>
@@ -33581,8 +33875,14 @@
       <c r="C1478" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1478" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1478" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1479" s="8">
         <v>60487</v>
       </c>
@@ -33592,8 +33892,14 @@
       <c r="C1479" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1479" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1479" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1480" s="8">
         <v>60487</v>
       </c>
@@ -33603,8 +33909,14 @@
       <c r="C1480" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1480" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1480" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1481" s="8">
         <v>60487</v>
       </c>
@@ -33614,8 +33926,14 @@
       <c r="C1481" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1481" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1481" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1482" s="8">
         <v>60487</v>
       </c>
@@ -33625,8 +33943,14 @@
       <c r="C1482" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1482" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1482" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1483" s="8">
         <v>60487</v>
       </c>
@@ -33636,8 +33960,14 @@
       <c r="C1483" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1483" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1483" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1484" s="8">
         <v>60487</v>
       </c>
@@ -33647,8 +33977,14 @@
       <c r="C1484" s="8" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="1485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1484" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1484" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1485" s="8">
         <v>60487</v>
       </c>
@@ -33658,8 +33994,14 @@
       <c r="C1485" s="8" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="1486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1485" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1485" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1486" s="8">
         <v>60487</v>
       </c>
@@ -33669,8 +34011,14 @@
       <c r="C1486" s="8" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="1487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1486" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1486" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1487" s="8">
         <v>60487</v>
       </c>
@@ -33680,8 +34028,14 @@
       <c r="C1487" s="8" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="1488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1487" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1487" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1488" s="8">
         <v>60487</v>
       </c>
@@ -33691,8 +34045,14 @@
       <c r="C1488" s="8" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="1489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1488" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1488" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1489" s="8">
         <v>60487</v>
       </c>
@@ -33702,8 +34062,14 @@
       <c r="C1489" s="8" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="1490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1489" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1489" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1490" s="8">
         <v>60487</v>
       </c>
@@ -33713,8 +34079,14 @@
       <c r="C1490" s="8" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="1491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1490" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1490" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1491" s="8">
         <v>60487</v>
       </c>
@@ -33724,8 +34096,14 @@
       <c r="C1491" s="8" t="s">
         <v>2349</v>
       </c>
-    </row>
-    <row r="1492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1491" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1491" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1492" s="8">
         <v>60487</v>
       </c>
@@ -33735,8 +34113,14 @@
       <c r="C1492" s="8" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="1493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1492" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1492" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1493" s="8">
         <v>60487</v>
       </c>
@@ -33746,8 +34130,14 @@
       <c r="C1493" s="8" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="1494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1493" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1493" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1494" s="8">
         <v>60487</v>
       </c>
@@ -33757,8 +34147,14 @@
       <c r="C1494" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1494" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1494" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1495" s="8">
         <v>60487</v>
       </c>
@@ -33768,8 +34164,14 @@
       <c r="C1495" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1495" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1495" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1496" s="8">
         <v>60487</v>
       </c>
@@ -33779,8 +34181,14 @@
       <c r="C1496" s="8" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="1497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1496" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1496" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1497" s="8">
         <v>60566</v>
       </c>
@@ -33790,8 +34198,17 @@
       <c r="C1497" s="8" t="s">
         <v>2350</v>
       </c>
-    </row>
-    <row r="1498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1497" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1497" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1497" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1498" s="8">
         <v>60566</v>
       </c>
@@ -33801,8 +34218,14 @@
       <c r="C1498" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1498" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1498" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1499" s="8">
         <v>60566</v>
       </c>
@@ -33812,19 +34235,35 @@
       <c r="C1499" s="8" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="1500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1500" s="8">
+      <c r="E1499" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1499" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1500" s="11">
         <v>60566</v>
       </c>
-      <c r="B1500" s="8" t="s">
+      <c r="B1500" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C1500" s="8" t="s">
+      <c r="C1500" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1500" s="12"/>
+      <c r="E1500" s="12" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F1500" s="12"/>
+      <c r="G1500" s="12"/>
+      <c r="H1500" s="10"/>
+      <c r="I1500" s="10" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1501" s="8">
         <v>60566</v>
       </c>
@@ -33834,8 +34273,14 @@
       <c r="C1501" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1501" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1501" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1502" s="8">
         <v>60566</v>
       </c>
@@ -33845,8 +34290,14 @@
       <c r="C1502" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1502" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1502" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1503" s="8">
         <v>60566</v>
       </c>
@@ -33856,8 +34307,14 @@
       <c r="C1503" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1503" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1503" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1504" s="8">
         <v>60566</v>
       </c>
@@ -33867,8 +34324,14 @@
       <c r="C1504" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1504" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1504" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1505" s="8">
         <v>60566</v>
       </c>
@@ -33878,19 +34341,35 @@
       <c r="C1505" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1506" s="8">
+      <c r="E1505" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1505" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1506" s="11">
         <v>60566</v>
       </c>
-      <c r="B1506" s="8" t="s">
+      <c r="B1506" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="C1506" s="8" t="s">
+      <c r="C1506" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1506" s="12"/>
+      <c r="E1506" s="12" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F1506" s="12"/>
+      <c r="G1506" s="12"/>
+      <c r="H1506" s="10"/>
+      <c r="I1506" s="10" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1507" s="8">
         <v>60566</v>
       </c>
@@ -33900,19 +34379,35 @@
       <c r="C1507" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1508" s="8">
+      <c r="E1507" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1507" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1508" s="11">
         <v>60566</v>
       </c>
-      <c r="B1508" s="8" t="s">
+      <c r="B1508" s="11" t="s">
         <v>2351</v>
       </c>
-      <c r="C1508" s="8" t="s">
+      <c r="C1508" s="11" t="s">
         <v>2352</v>
       </c>
-    </row>
-    <row r="1509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1508" s="12"/>
+      <c r="E1508" s="12" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F1508" s="12"/>
+      <c r="G1508" s="12"/>
+      <c r="H1508" s="10"/>
+      <c r="I1508" s="10" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1509" s="8">
         <v>60566</v>
       </c>
@@ -33922,8 +34417,14 @@
       <c r="C1509" s="8" t="s">
         <v>2354</v>
       </c>
-    </row>
-    <row r="1510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1509" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1509" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1510" s="8">
         <v>60566</v>
       </c>
@@ -33933,8 +34434,14 @@
       <c r="C1510" s="8" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="1511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1510" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1510" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1511" s="8">
         <v>60566</v>
       </c>
@@ -33944,8 +34451,14 @@
       <c r="C1511" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1511" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1511" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1512" s="8">
         <v>60566</v>
       </c>
@@ -33955,8 +34468,14 @@
       <c r="C1512" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1512" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1512" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1513" s="8">
         <v>60566</v>
       </c>
@@ -33966,8 +34485,14 @@
       <c r="C1513" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1513" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1513" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1514" s="8">
         <v>60566</v>
       </c>
@@ -33977,8 +34502,14 @@
       <c r="C1514" s="8" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="1515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1514" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1514" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1515" s="8">
         <v>60566</v>
       </c>
@@ -33988,8 +34519,14 @@
       <c r="C1515" s="8" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="1516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1515" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1515" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1516" s="8">
         <v>60566</v>
       </c>
@@ -33999,8 +34536,14 @@
       <c r="C1516" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1516" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1516" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1517" s="8">
         <v>60566</v>
       </c>
@@ -34010,8 +34553,17 @@
       <c r="C1517" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="1518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1517" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1517" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="I1517" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1518" s="8">
         <v>60566</v>
       </c>
@@ -34021,8 +34573,14 @@
       <c r="C1518" s="8" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="1519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1518" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1518" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1519" s="8">
         <v>60566</v>
       </c>
@@ -34032,8 +34590,14 @@
       <c r="C1519" s="8" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="1520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1519" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1519" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1520" s="8">
         <v>60566</v>
       </c>
@@ -34043,8 +34607,17 @@
       <c r="C1520" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1520" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1520" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I1520" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1521" s="8">
         <v>60566</v>
       </c>
@@ -34054,8 +34627,17 @@
       <c r="C1521" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1521" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1521" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I1521" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1522" s="8">
         <v>60553</v>
       </c>
@@ -34065,8 +34647,14 @@
       <c r="C1522" s="8" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="1523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1522" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1522" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1523" s="8">
         <v>60553</v>
       </c>
@@ -34076,8 +34664,14 @@
       <c r="C1523" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1523" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1523" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1524" s="8">
         <v>60553</v>
       </c>
@@ -34087,8 +34681,17 @@
       <c r="C1524" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="1525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1524" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1524" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I1524" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1525" s="8">
         <v>60553</v>
       </c>
@@ -34098,8 +34701,17 @@
       <c r="C1525" s="8" t="s">
         <v>2355</v>
       </c>
-    </row>
-    <row r="1526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1525" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1525" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1525" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1526" s="8">
         <v>60553</v>
       </c>
@@ -34109,8 +34721,14 @@
       <c r="C1526" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="1527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1526" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1526" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1527" s="8">
         <v>60553</v>
       </c>
@@ -34120,8 +34738,14 @@
       <c r="C1527" s="8" t="s">
         <v>2357</v>
       </c>
-    </row>
-    <row r="1528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1527" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1527" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1528" s="8">
         <v>60553</v>
       </c>
@@ -34131,8 +34755,14 @@
       <c r="C1528" s="8" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="1529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1528" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1528" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1529" s="8">
         <v>60553</v>
       </c>
@@ -34142,8 +34772,14 @@
       <c r="C1529" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="1530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1529" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1529" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1530" s="8">
         <v>60553</v>
       </c>
@@ -34153,8 +34789,14 @@
       <c r="C1530" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="1531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1530" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1530" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1531" s="8">
         <v>60553</v>
       </c>
@@ -34164,8 +34806,14 @@
       <c r="C1531" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="1532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1531" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1531" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1532" s="8">
         <v>60553</v>
       </c>
@@ -34175,8 +34823,14 @@
       <c r="C1532" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="1533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1532" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1532" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1533" s="8">
         <v>60553</v>
       </c>
@@ -34186,8 +34840,14 @@
       <c r="C1533" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="1534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1533" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1533" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1534" s="8">
         <v>60553</v>
       </c>
@@ -34197,8 +34857,14 @@
       <c r="C1534" s="8" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="1535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1534" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1534" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1535" s="8">
         <v>60553</v>
       </c>
@@ -34208,8 +34874,14 @@
       <c r="C1535" s="8" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="1536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1535" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1535" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1536" s="8">
         <v>60553</v>
       </c>
@@ -34219,8 +34891,14 @@
       <c r="C1536" s="8" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="1537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1536" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1536" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1537" s="8">
         <v>60511</v>
       </c>
@@ -34230,8 +34908,14 @@
       <c r="C1537" s="8" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="1538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1537" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1537" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1538" s="8">
         <v>60511</v>
       </c>
@@ -34241,8 +34925,17 @@
       <c r="C1538" s="8" t="s">
         <v>2021</v>
       </c>
-    </row>
-    <row r="1539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1538" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1538" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1538" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1539" s="8">
         <v>60511</v>
       </c>
@@ -34252,8 +34945,14 @@
       <c r="C1539" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1539" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1539" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1540" s="8">
         <v>60511</v>
       </c>
@@ -34263,8 +34962,14 @@
       <c r="C1540" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="1541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1540" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1540" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1541" s="8">
         <v>60511</v>
       </c>
@@ -34274,8 +34979,14 @@
       <c r="C1541" s="8" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="1542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1541" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1541" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1542" s="8">
         <v>60511</v>
       </c>
@@ -34285,8 +34996,14 @@
       <c r="C1542" s="8" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="1543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1542" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1542" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1543" s="8">
         <v>60511</v>
       </c>
@@ -34296,8 +35013,14 @@
       <c r="C1543" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="1544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1543" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1543" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1544" s="8">
         <v>60511</v>
       </c>
@@ -34307,8 +35030,14 @@
       <c r="C1544" s="8" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="1545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1544" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1544" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1545" s="8">
         <v>60511</v>
       </c>
@@ -34318,8 +35047,14 @@
       <c r="C1545" s="8" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="1546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1545" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1545" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1546" s="8">
         <v>60511</v>
       </c>
@@ -34329,8 +35064,14 @@
       <c r="C1546" s="8" t="s">
         <v>2358</v>
       </c>
-    </row>
-    <row r="1547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1546" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1546" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1547" s="8">
         <v>60511</v>
       </c>
@@ -34340,8 +35081,14 @@
       <c r="C1547" s="8" t="s">
         <v>2360</v>
       </c>
-    </row>
-    <row r="1548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1547" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1547" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1548" s="8">
         <v>60511</v>
       </c>
@@ -34351,8 +35098,14 @@
       <c r="C1548" s="8" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="1549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1548" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1548" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1549" s="8">
         <v>60511</v>
       </c>
@@ -34362,8 +35115,14 @@
       <c r="C1549" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1549" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1549" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1550" s="8">
         <v>60511</v>
       </c>
@@ -34373,8 +35132,14 @@
       <c r="C1550" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1550" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1550" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1551" s="8">
         <v>60511</v>
       </c>
@@ -34384,8 +35149,14 @@
       <c r="C1551" s="8" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="1552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1551" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1551" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1552" s="8">
         <v>60511</v>
       </c>
@@ -34395,8 +35166,14 @@
       <c r="C1552" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1552" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1552" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1553" s="8">
         <v>60511</v>
       </c>
@@ -34406,8 +35183,14 @@
       <c r="C1553" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1553" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1553" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1554" s="8">
         <v>60511</v>
       </c>
@@ -34417,8 +35200,14 @@
       <c r="C1554" s="8" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="1555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1554" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1554" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1555" s="8">
         <v>60488</v>
       </c>
@@ -34428,8 +35217,14 @@
       <c r="C1555" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1555" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1555" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1556" s="8">
         <v>60488</v>
       </c>
@@ -34439,8 +35234,14 @@
       <c r="C1556" s="8" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="1557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1556" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1556" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1557" s="8">
         <v>60488</v>
       </c>
@@ -34450,8 +35251,14 @@
       <c r="C1557" s="8" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="1558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1557" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1557" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1558" s="8">
         <v>60488</v>
       </c>
@@ -34461,8 +35268,14 @@
       <c r="C1558" s="8" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="1559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1558" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1558" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1559" s="8">
         <v>60488</v>
       </c>
@@ -34472,8 +35285,14 @@
       <c r="C1559" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1559" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1559" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1560" s="8">
         <v>60488</v>
       </c>
@@ -34483,8 +35302,14 @@
       <c r="C1560" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1560" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1560" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1561" s="8">
         <v>60488</v>
       </c>
@@ -34494,8 +35319,14 @@
       <c r="C1561" s="8" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="1562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1561" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1561" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1562" s="8">
         <v>60488</v>
       </c>
@@ -34505,8 +35336,14 @@
       <c r="C1562" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1562" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1562" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1563" s="8">
         <v>60488</v>
       </c>
@@ -34516,8 +35353,14 @@
       <c r="C1563" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1563" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1563" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1564" s="8">
         <v>60488</v>
       </c>
@@ -34527,8 +35370,14 @@
       <c r="C1564" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1564" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1564" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1565" s="8">
         <v>60488</v>
       </c>
@@ -34538,8 +35387,14 @@
       <c r="C1565" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1565" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1565" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1566" s="8">
         <v>60488</v>
       </c>
@@ -34549,8 +35404,14 @@
       <c r="C1566" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1566" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1566" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1567" s="8">
         <v>60488</v>
       </c>
@@ -34560,8 +35421,14 @@
       <c r="C1567" s="8" t="s">
         <v>2357</v>
       </c>
-    </row>
-    <row r="1568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1567" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1567" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1568" s="8">
         <v>60488</v>
       </c>
@@ -34571,8 +35438,14 @@
       <c r="C1568" s="8" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="1569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1568" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1568" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1569" s="8">
         <v>60488</v>
       </c>
@@ -34582,8 +35455,14 @@
       <c r="C1569" s="8" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="1570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1569" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1569" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1570" s="8">
         <v>60488</v>
       </c>
@@ -34593,8 +35472,14 @@
       <c r="C1570" s="8" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="1571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1570" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1570" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1571" s="8">
         <v>60488</v>
       </c>
@@ -34604,8 +35489,14 @@
       <c r="C1571" s="8" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="1572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1571" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1571" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1572" s="8">
         <v>60488</v>
       </c>
@@ -34615,8 +35506,14 @@
       <c r="C1572" s="8" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="1573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1572" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1572" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1573" s="8">
         <v>60488</v>
       </c>
@@ -34626,8 +35523,14 @@
       <c r="C1573" s="8" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="1574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1573" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1573" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1574" s="8">
         <v>60488</v>
       </c>
@@ -34637,8 +35540,14 @@
       <c r="C1574" s="8" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="1575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1574" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1574" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1575" s="8">
         <v>60488</v>
       </c>
@@ -34648,8 +35557,17 @@
       <c r="C1575" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="1576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1575" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1575" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="I1575" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1576" s="8">
         <v>60488</v>
       </c>
@@ -34659,8 +35577,17 @@
       <c r="C1576" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="1577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1576" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1576" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="I1576" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1577" s="8">
         <v>60488</v>
       </c>
@@ -34670,8 +35597,17 @@
       <c r="C1577" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="1578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1577" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1577" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="I1577" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1578" s="8">
         <v>60565</v>
       </c>
@@ -34682,7 +35618,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="1579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1579" s="8">
         <v>60565</v>
       </c>
@@ -34693,7 +35629,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1580" s="8">
         <v>60565</v>
       </c>
@@ -34704,7 +35640,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1581" s="8">
         <v>60565</v>
       </c>
@@ -34715,7 +35651,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1582" s="8">
         <v>60565</v>
       </c>
@@ -34726,7 +35662,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="1583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1583" s="8">
         <v>60565</v>
       </c>
@@ -34737,7 +35673,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="1584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1584" s="8">
         <v>60565</v>
       </c>

--- a/zs/0715/valid_entities_0715_llama3-70b_prompt1.xlsx
+++ b/zs/0715/valid_entities_0715_llama3-70b_prompt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Working\hp-extractor\zs\0715\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61CA37D-BA45-4E77-95B5-80AB08BD304E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A988B9C-65D9-489E-A4FF-92CE95F1A78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25515" yWindow="0" windowWidth="11160" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="11160" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities_0312_prompt1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7730" uniqueCount="2586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7968" uniqueCount="2587">
   <si>
     <t>doc_id</t>
   </si>
@@ -7794,6 +7794,9 @@
   </si>
   <si>
     <t>should be count etc.</t>
+  </si>
+  <si>
+    <t>not present as digit or word; "no .. infections" is the verbatim source text</t>
   </si>
 </sst>
 </file>
@@ -8327,8 +8330,8 @@
   <dimension ref="A1:AA2220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1567" sqref="I1567"/>
+      <pane ySplit="1" topLeftCell="A1664" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1675" sqref="I1675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35617,6 +35620,12 @@
       <c r="C1578" s="8" t="s">
         <v>1132</v>
       </c>
+      <c r="E1578" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1578" s="1" t="s">
+        <v>2537</v>
+      </c>
     </row>
     <row r="1579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1579" s="8">
@@ -35628,6 +35637,12 @@
       <c r="C1579" s="8" t="s">
         <v>386</v>
       </c>
+      <c r="E1579" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1579" s="1" t="s">
+        <v>2537</v>
+      </c>
     </row>
     <row r="1580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1580" s="8">
@@ -35639,6 +35654,15 @@
       <c r="C1580" s="8" t="s">
         <v>386</v>
       </c>
+      <c r="E1580" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1580" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1580" t="s">
+        <v>2549</v>
+      </c>
     </row>
     <row r="1581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1581" s="8">
@@ -35650,6 +35674,12 @@
       <c r="C1581" s="8" t="s">
         <v>1516</v>
       </c>
+      <c r="E1581" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1581" s="1" t="s">
+        <v>2537</v>
+      </c>
     </row>
     <row r="1582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1582" s="8">
@@ -35661,6 +35691,12 @@
       <c r="C1582" s="8" t="s">
         <v>1377</v>
       </c>
+      <c r="E1582" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1582" s="1" t="s">
+        <v>2537</v>
+      </c>
     </row>
     <row r="1583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1583" s="8">
@@ -35672,6 +35708,12 @@
       <c r="C1583" s="8" t="s">
         <v>1013</v>
       </c>
+      <c r="E1583" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1583" s="1" t="s">
+        <v>2537</v>
+      </c>
     </row>
     <row r="1584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1584" s="8">
@@ -35683,8 +35725,14 @@
       <c r="C1584" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="1585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1584" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1584" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1585" s="8">
         <v>60565</v>
       </c>
@@ -35694,8 +35742,14 @@
       <c r="C1585" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1585" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1585" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1586" s="8">
         <v>60565</v>
       </c>
@@ -35705,8 +35759,14 @@
       <c r="C1586" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1586" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1586" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1587" s="8">
         <v>60565</v>
       </c>
@@ -35716,8 +35776,14 @@
       <c r="C1587" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1587" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1587" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1588" s="8">
         <v>60565</v>
       </c>
@@ -35727,8 +35793,14 @@
       <c r="C1588" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1588" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1588" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1589" s="8">
         <v>60565</v>
       </c>
@@ -35738,8 +35810,14 @@
       <c r="C1589" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1589" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1589" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1590" s="8">
         <v>60565</v>
       </c>
@@ -35749,8 +35827,14 @@
       <c r="C1590" s="8" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="1591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1590" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1590" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1591" s="8">
         <v>60565</v>
       </c>
@@ -35760,8 +35844,14 @@
       <c r="C1591" s="8" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="1592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1591" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1591" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1592" s="8">
         <v>60565</v>
       </c>
@@ -35771,8 +35861,14 @@
       <c r="C1592" s="8" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="1593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1592" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1592" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1593" s="8">
         <v>60565</v>
       </c>
@@ -35782,8 +35878,14 @@
       <c r="C1593" s="8" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1593" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1593" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1594" s="8">
         <v>60516</v>
       </c>
@@ -35793,8 +35895,14 @@
       <c r="C1594" s="8" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="1595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1594" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1594" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1595" s="8">
         <v>60516</v>
       </c>
@@ -35804,8 +35912,17 @@
       <c r="C1595" s="8" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="1596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1595" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1595" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1595" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1596" s="8">
         <v>60516</v>
       </c>
@@ -35815,8 +35932,14 @@
       <c r="C1596" s="8" t="s">
         <v>2362</v>
       </c>
-    </row>
-    <row r="1597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1596" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1596" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1597" s="8">
         <v>60516</v>
       </c>
@@ -35826,8 +35949,14 @@
       <c r="C1597" s="8" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="1598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1597" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1597" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1598" s="8">
         <v>60516</v>
       </c>
@@ -35837,8 +35966,14 @@
       <c r="C1598" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="1599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1598" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1598" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1599" s="8">
         <v>60516</v>
       </c>
@@ -35848,8 +35983,14 @@
       <c r="C1599" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="1600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1599" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1599" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1600" s="8">
         <v>60516</v>
       </c>
@@ -35859,8 +36000,14 @@
       <c r="C1600" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1600" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1600" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1601" s="8">
         <v>60516</v>
       </c>
@@ -35870,8 +36017,14 @@
       <c r="C1601" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1601" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1601" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1602" s="8">
         <v>60516</v>
       </c>
@@ -35881,8 +36034,14 @@
       <c r="C1602" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1602" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1602" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1603" s="8">
         <v>60516</v>
       </c>
@@ -35892,8 +36051,14 @@
       <c r="C1603" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="1604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1603" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1603" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1604" s="8">
         <v>60516</v>
       </c>
@@ -35903,8 +36068,14 @@
       <c r="C1604" s="8" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="1605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1604" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1604" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1605" s="8">
         <v>60516</v>
       </c>
@@ -35914,8 +36085,14 @@
       <c r="C1605" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="1606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1605" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1605" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1606" s="8">
         <v>60460</v>
       </c>
@@ -35925,8 +36102,14 @@
       <c r="C1606" s="8" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="1607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1606" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1606" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1607" s="8">
         <v>60460</v>
       </c>
@@ -35936,8 +36119,14 @@
       <c r="C1607" s="8" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="1608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1607" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1607" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1608" s="8">
         <v>60460</v>
       </c>
@@ -35947,8 +36136,14 @@
       <c r="C1608" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1608" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1608" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1609" s="8">
         <v>60460</v>
       </c>
@@ -35958,8 +36153,17 @@
       <c r="C1609" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1609" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1609" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1609" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1610" s="8">
         <v>60460</v>
       </c>
@@ -35969,8 +36173,14 @@
       <c r="C1610" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1610" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1610" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1611" s="8">
         <v>60460</v>
       </c>
@@ -35980,8 +36190,17 @@
       <c r="C1611" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="1612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1611" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1611" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1611" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1612" s="8">
         <v>60460</v>
       </c>
@@ -35991,8 +36210,14 @@
       <c r="C1612" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="1613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1612" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1612" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1613" s="8">
         <v>60460</v>
       </c>
@@ -36002,8 +36227,14 @@
       <c r="C1613" s="8" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="1614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1613" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1613" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1614" s="8">
         <v>60460</v>
       </c>
@@ -36013,8 +36244,14 @@
       <c r="C1614" s="8" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="1615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1614" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1614" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1615" s="8">
         <v>60460</v>
       </c>
@@ -36024,8 +36261,14 @@
       <c r="C1615" s="8" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="1616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1615" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1615" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1616" s="8">
         <v>60460</v>
       </c>
@@ -36035,8 +36278,14 @@
       <c r="C1616" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="1617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1616" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1616" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1617" s="8">
         <v>60460</v>
       </c>
@@ -36046,8 +36295,14 @@
       <c r="C1617" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="1618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1617" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1617" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1618" s="8">
         <v>60460</v>
       </c>
@@ -36057,8 +36312,14 @@
       <c r="C1618" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="1619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1618" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1618" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1619" s="8">
         <v>60460</v>
       </c>
@@ -36068,8 +36329,14 @@
       <c r="C1619" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="1620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1619" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1619" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1620" s="8">
         <v>60460</v>
       </c>
@@ -36079,8 +36346,14 @@
       <c r="C1620" s="8" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="1621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1620" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1620" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1621" s="8">
         <v>60460</v>
       </c>
@@ -36090,8 +36363,14 @@
       <c r="C1621" s="8" t="s">
         <v>2363</v>
       </c>
-    </row>
-    <row r="1622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1621" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1621" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1622" s="8">
         <v>60460</v>
       </c>
@@ -36101,8 +36380,14 @@
       <c r="C1622" s="8" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="1623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1622" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1622" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1623" s="8">
         <v>60460</v>
       </c>
@@ -36112,19 +36397,35 @@
       <c r="C1623" s="8" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="1624" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1624" s="8">
+      <c r="E1623" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1623" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1624" s="11">
         <v>60460</v>
       </c>
-      <c r="B1624" s="8" t="s">
+      <c r="B1624" s="11" t="s">
         <v>2535</v>
       </c>
-      <c r="C1624" s="8" t="s">
+      <c r="C1624" s="11" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="1625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1624" s="12"/>
+      <c r="E1624" s="12" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F1624" s="12"/>
+      <c r="G1624" s="12"/>
+      <c r="H1624" s="10"/>
+      <c r="I1624" s="10" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1625" s="8">
         <v>60430</v>
       </c>
@@ -36134,8 +36435,14 @@
       <c r="C1625" s="8" t="s">
         <v>2364</v>
       </c>
-    </row>
-    <row r="1626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1625" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1625" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1626" s="8">
         <v>60430</v>
       </c>
@@ -36145,8 +36452,14 @@
       <c r="C1626" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1626" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1626" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1627" s="8">
         <v>60430</v>
       </c>
@@ -36156,8 +36469,14 @@
       <c r="C1627" s="8" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="1628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1627" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1627" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1628" s="8">
         <v>60430</v>
       </c>
@@ -36167,8 +36486,14 @@
       <c r="C1628" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1628" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1628" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1629" s="8">
         <v>60430</v>
       </c>
@@ -36178,8 +36503,14 @@
       <c r="C1629" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1629" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1629" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1630" s="8">
         <v>60430</v>
       </c>
@@ -36189,8 +36520,14 @@
       <c r="C1630" s="8" t="s">
         <v>2365</v>
       </c>
-    </row>
-    <row r="1631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1630" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1630" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1631" s="8">
         <v>60430</v>
       </c>
@@ -36200,8 +36537,14 @@
       <c r="C1631" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1631" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1631" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1632" s="8">
         <v>60430</v>
       </c>
@@ -36211,8 +36554,14 @@
       <c r="C1632" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="1633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1632" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1632" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1633" s="8">
         <v>60430</v>
       </c>
@@ -36222,8 +36571,14 @@
       <c r="C1633" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1633" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1633" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1634" s="8">
         <v>60430</v>
       </c>
@@ -36233,8 +36588,14 @@
       <c r="C1634" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1634" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1634" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1635" s="8">
         <v>60430</v>
       </c>
@@ -36244,8 +36605,14 @@
       <c r="C1635" s="8" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="1636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1635" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1635" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1636" s="8">
         <v>60430</v>
       </c>
@@ -36255,8 +36622,14 @@
       <c r="C1636" s="8" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="1637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1636" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1636" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1637" s="8">
         <v>60430</v>
       </c>
@@ -36266,8 +36639,14 @@
       <c r="C1637" s="8" t="s">
         <v>2368</v>
       </c>
-    </row>
-    <row r="1638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1637" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1637" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1638" s="8">
         <v>60430</v>
       </c>
@@ -36277,8 +36656,14 @@
       <c r="C1638" s="8" t="s">
         <v>2368</v>
       </c>
-    </row>
-    <row r="1639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1638" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1638" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1639" s="8">
         <v>60430</v>
       </c>
@@ -36288,8 +36673,14 @@
       <c r="C1639" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="1640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1639" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1639" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1640" s="8">
         <v>60430</v>
       </c>
@@ -36299,8 +36690,14 @@
       <c r="C1640" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="1641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1640" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1640" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1641" s="8">
         <v>60430</v>
       </c>
@@ -36310,8 +36707,14 @@
       <c r="C1641" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="1642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1641" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1641" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1642" s="8">
         <v>60430</v>
       </c>
@@ -36321,8 +36724,14 @@
       <c r="C1642" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="1643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1642" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1642" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1643" s="8">
         <v>60430</v>
       </c>
@@ -36332,8 +36741,14 @@
       <c r="C1643" s="8" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="1644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1643" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1643" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1644" s="8">
         <v>60430</v>
       </c>
@@ -36343,8 +36758,14 @@
       <c r="C1644" s="8" t="s">
         <v>2376</v>
       </c>
-    </row>
-    <row r="1645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1644" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1644" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1645" s="8">
         <v>60523</v>
       </c>
@@ -36354,8 +36775,14 @@
       <c r="C1645" s="8" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="1646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1645" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1645" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1646" s="8">
         <v>60523</v>
       </c>
@@ -36365,8 +36792,14 @@
       <c r="C1646" s="8" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1646" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1646" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1647" s="8">
         <v>60523</v>
       </c>
@@ -36376,8 +36809,14 @@
       <c r="C1647" s="8" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1647" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1647" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1648" s="8">
         <v>60523</v>
       </c>
@@ -36387,8 +36826,14 @@
       <c r="C1648" s="8" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="1649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1648" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1648" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1649" s="8">
         <v>60523</v>
       </c>
@@ -36398,8 +36843,14 @@
       <c r="C1649" s="8" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="1650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1649" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1649" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1650" s="8">
         <v>60523</v>
       </c>
@@ -36409,8 +36860,14 @@
       <c r="C1650" s="8" t="s">
         <v>2382</v>
       </c>
-    </row>
-    <row r="1651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1650" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1650" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1651" s="8">
         <v>60523</v>
       </c>
@@ -36420,8 +36877,14 @@
       <c r="C1651" s="8" t="s">
         <v>2382</v>
       </c>
-    </row>
-    <row r="1652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1651" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1651" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1652" s="8">
         <v>60523</v>
       </c>
@@ -36431,8 +36894,17 @@
       <c r="C1652" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1652" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1652" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1652" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1653" s="8">
         <v>60523</v>
       </c>
@@ -36442,8 +36914,14 @@
       <c r="C1653" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1653" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1653" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1654" s="8">
         <v>60523</v>
       </c>
@@ -36453,8 +36931,14 @@
       <c r="C1654" s="8" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="1655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1654" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1654" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1655" s="8">
         <v>60523</v>
       </c>
@@ -36464,8 +36948,14 @@
       <c r="C1655" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="1656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1655" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1655" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1656" s="8">
         <v>60523</v>
       </c>
@@ -36475,8 +36965,14 @@
       <c r="C1656" s="8" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="1657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1656" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1656" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1657" s="8">
         <v>60523</v>
       </c>
@@ -36486,8 +36982,14 @@
       <c r="C1657" s="8" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="1658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1657" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1657" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1658" s="8">
         <v>60523</v>
       </c>
@@ -36497,8 +36999,14 @@
       <c r="C1658" s="8" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="1659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1658" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1658" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1659" s="8">
         <v>60523</v>
       </c>
@@ -36508,8 +37016,14 @@
       <c r="C1659" s="8" t="s">
         <v>2386</v>
       </c>
-    </row>
-    <row r="1660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1659" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1659" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1660" s="8">
         <v>60523</v>
       </c>
@@ -36519,8 +37033,14 @@
       <c r="C1660" s="8" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="1661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1660" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1660" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1661" s="8">
         <v>60523</v>
       </c>
@@ -36530,8 +37050,14 @@
       <c r="C1661" s="8" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="1662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1661" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1661" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1662" s="8">
         <v>60523</v>
       </c>
@@ -36541,8 +37067,14 @@
       <c r="C1662" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1662" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1662" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1663" s="8">
         <v>60523</v>
       </c>
@@ -36552,8 +37084,14 @@
       <c r="C1663" s="8" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="1664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1663" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1663" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1664" s="8">
         <v>60523</v>
       </c>
@@ -36563,8 +37101,14 @@
       <c r="C1664" s="8" t="s">
         <v>2387</v>
       </c>
-    </row>
-    <row r="1665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1664" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1664" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1665" s="8">
         <v>60523</v>
       </c>
@@ -36574,8 +37118,14 @@
       <c r="C1665" s="8" t="s">
         <v>2387</v>
       </c>
-    </row>
-    <row r="1666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1665" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1665" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1666" s="8">
         <v>60523</v>
       </c>
@@ -36585,8 +37135,14 @@
       <c r="C1666" s="8" t="s">
         <v>2388</v>
       </c>
-    </row>
-    <row r="1667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1666" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1666" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1667" s="8">
         <v>60523</v>
       </c>
@@ -36596,8 +37152,14 @@
       <c r="C1667" s="8" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="1668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1667" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1667" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1668" s="8">
         <v>60523</v>
       </c>
@@ -36607,8 +37169,14 @@
       <c r="C1668" s="8" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="1669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1668" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1668" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1669" s="8">
         <v>60523</v>
       </c>
@@ -36618,8 +37186,14 @@
       <c r="C1669" s="8" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1669" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1669" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1670" s="8">
         <v>60523</v>
       </c>
@@ -36629,8 +37203,14 @@
       <c r="C1670" s="8" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="1671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1670" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1670" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1671" s="8">
         <v>60523</v>
       </c>
@@ -36640,8 +37220,14 @@
       <c r="C1671" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="1672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1671" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1671" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1672" s="8">
         <v>60523</v>
       </c>
@@ -36651,8 +37237,14 @@
       <c r="C1672" s="8" t="s">
         <v>2390</v>
       </c>
-    </row>
-    <row r="1673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1672" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1672" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1673" s="8">
         <v>60523</v>
       </c>
@@ -36662,8 +37254,14 @@
       <c r="C1673" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1673" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1673" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1674" s="8">
         <v>59954</v>
       </c>
@@ -36673,8 +37271,14 @@
       <c r="C1674" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1674" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1674" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1675" s="8">
         <v>59954</v>
       </c>
@@ -36684,8 +37288,14 @@
       <c r="C1675" s="8" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1675" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1675" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1676" s="8">
         <v>59954</v>
       </c>
@@ -36695,8 +37305,14 @@
       <c r="C1676" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1676" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1676" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1677" s="8">
         <v>59954</v>
       </c>
@@ -36706,8 +37322,14 @@
       <c r="C1677" s="8" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1677" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1677" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1678" s="8">
         <v>59954</v>
       </c>
@@ -36717,8 +37339,14 @@
       <c r="C1678" s="8" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1678" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1678" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1679" s="8">
         <v>59954</v>
       </c>
@@ -36728,8 +37356,17 @@
       <c r="C1679" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1679" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1679" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1679" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1680" s="8">
         <v>59954</v>
       </c>
@@ -36739,8 +37376,14 @@
       <c r="C1680" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1680" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1680" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1681" s="8">
         <v>59954</v>
       </c>
@@ -36750,8 +37393,14 @@
       <c r="C1681" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1681" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1681" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1682" s="8">
         <v>59954</v>
       </c>
@@ -36761,8 +37410,14 @@
       <c r="C1682" s="8" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1682" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1682" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1683" s="8">
         <v>59954</v>
       </c>
@@ -36772,8 +37427,14 @@
       <c r="C1683" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1683" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1683" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1684" s="8">
         <v>59954</v>
       </c>
@@ -36783,8 +37444,14 @@
       <c r="C1684" s="8" t="s">
         <v>2392</v>
       </c>
-    </row>
-    <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1684" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1684" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1685" s="8">
         <v>59954</v>
       </c>
@@ -36794,8 +37461,14 @@
       <c r="C1685" s="8" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1685" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1685" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1686" s="8">
         <v>59954</v>
       </c>
@@ -36805,8 +37478,14 @@
       <c r="C1686" s="8" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1686" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1686" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1687" s="8">
         <v>59954</v>
       </c>
@@ -36816,8 +37495,14 @@
       <c r="C1687" s="8" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1687" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1687" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1688" s="8">
         <v>59954</v>
       </c>
@@ -36827,8 +37512,14 @@
       <c r="C1688" s="8" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="1689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1688" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1688" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1689" s="8">
         <v>59954</v>
       </c>
@@ -36838,8 +37529,14 @@
       <c r="C1689" s="8" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1689" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1689" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1690" s="8">
         <v>59954</v>
       </c>
@@ -36849,8 +37546,14 @@
       <c r="C1690" s="8" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="1691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1690" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1690" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1691" s="8">
         <v>59954</v>
       </c>
@@ -36860,8 +37563,14 @@
       <c r="C1691" s="8" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="1692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1691" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1691" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1692" s="8">
         <v>59954</v>
       </c>
@@ -36871,8 +37580,14 @@
       <c r="C1692" s="8" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1692" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1692" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1693" s="8">
         <v>59954</v>
       </c>
@@ -36882,8 +37597,14 @@
       <c r="C1693" s="8" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="1694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1693" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1693" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1694" s="8">
         <v>59037</v>
       </c>
@@ -36894,7 +37615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1695" s="8">
         <v>59037</v>
       </c>
@@ -36905,7 +37626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1696" s="8">
         <v>59037</v>
       </c>

--- a/zs/0715/valid_entities_0715_llama3-70b_prompt1.xlsx
+++ b/zs/0715/valid_entities_0715_llama3-70b_prompt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Working\hp-extractor\zs\0715\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1F80A9-D7D1-4B15-A897-7E622B822F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1ACD4B-AA1B-4A6A-A8C6-45857816BFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27330" yWindow="0" windowWidth="10245" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27330" yWindow="0" windowWidth="10305" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities_0312_prompt1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8336" uniqueCount="2593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8480" uniqueCount="2593">
   <si>
     <t>doc_id</t>
   </si>
@@ -8348,8 +8348,8 @@
   <dimension ref="A1:AA2223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1832" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1851" sqref="G1851"/>
+      <pane ySplit="1" topLeftCell="A1898" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1911" sqref="J1911"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40432,7 +40432,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1857" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1857" s="8">
         <v>59406</v>
       </c>
@@ -40449,7 +40449,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1858" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1858" s="8">
         <v>59406</v>
       </c>
@@ -40466,7 +40466,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="1859" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1859" s="8">
         <v>59406</v>
       </c>
@@ -40483,7 +40483,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="1860" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1860" s="8">
         <v>59406</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1861" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1861" s="8">
         <v>59406</v>
       </c>
@@ -40517,7 +40517,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="1862" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1862" s="8">
         <v>59406</v>
       </c>
@@ -40534,7 +40534,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1863" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1863" s="8">
         <v>59406</v>
       </c>
@@ -40551,7 +40551,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1864" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1864" s="8">
         <v>59406</v>
       </c>
@@ -40568,7 +40568,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1865" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1865" s="8">
         <v>59406</v>
       </c>
@@ -40585,7 +40585,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1866" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1866" s="8">
         <v>59406</v>
       </c>
@@ -40602,7 +40602,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="1867" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1867" s="8">
         <v>59406</v>
       </c>
@@ -40619,7 +40619,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1868" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1868" s="8">
         <v>59406</v>
       </c>
@@ -40636,7 +40636,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1869" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1869" s="8">
         <v>60004</v>
       </c>
@@ -40646,8 +40646,14 @@
       <c r="C1869" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1870" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1869" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1869" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1870" s="8">
         <v>60004</v>
       </c>
@@ -40657,8 +40663,17 @@
       <c r="C1870" s="8" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="1871" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1870" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1870" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1870" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1871" s="8">
         <v>60004</v>
       </c>
@@ -40668,8 +40683,14 @@
       <c r="C1871" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1872" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1871" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1871" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1872" s="8">
         <v>60004</v>
       </c>
@@ -40679,8 +40700,17 @@
       <c r="C1872" s="8" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="1873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1872" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1872" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1872" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1873" s="8">
         <v>60004</v>
       </c>
@@ -40690,8 +40720,14 @@
       <c r="C1873" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1873" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1873" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1874" s="8">
         <v>60004</v>
       </c>
@@ -40701,8 +40737,14 @@
       <c r="C1874" s="8" t="s">
         <v>2445</v>
       </c>
-    </row>
-    <row r="1875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1874" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1874" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1875" s="8">
         <v>60004</v>
       </c>
@@ -40712,8 +40754,14 @@
       <c r="C1875" s="8" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="1876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1875" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1875" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1876" s="8">
         <v>60004</v>
       </c>
@@ -40723,8 +40771,14 @@
       <c r="C1876" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="1877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1876" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1876" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1877" s="8">
         <v>60004</v>
       </c>
@@ -40734,8 +40788,14 @@
       <c r="C1877" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="1878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1877" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1877" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1878" s="8">
         <v>60004</v>
       </c>
@@ -40745,8 +40805,14 @@
       <c r="C1878" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="1879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1878" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1878" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1879" s="8">
         <v>60004</v>
       </c>
@@ -40756,8 +40822,14 @@
       <c r="C1879" s="8" t="s">
         <v>2448</v>
       </c>
-    </row>
-    <row r="1880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1879" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1879" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1880" s="8">
         <v>60004</v>
       </c>
@@ -40767,8 +40839,14 @@
       <c r="C1880" s="8" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="1881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1880" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1880" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1881" s="8">
         <v>60004</v>
       </c>
@@ -40778,8 +40856,14 @@
       <c r="C1881" s="8" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="1882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1881" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1881" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1882" s="8">
         <v>60004</v>
       </c>
@@ -40789,8 +40873,14 @@
       <c r="C1882" s="8" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="1883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1882" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1882" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1883" s="8">
         <v>60004</v>
       </c>
@@ -40800,8 +40890,14 @@
       <c r="C1883" s="8" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="1884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1883" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1883" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1884" s="8">
         <v>60004</v>
       </c>
@@ -40811,8 +40907,14 @@
       <c r="C1884" s="8" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="1885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1884" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1884" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1885" s="8">
         <v>60004</v>
       </c>
@@ -40822,8 +40924,14 @@
       <c r="C1885" s="8" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="1886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1885" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1885" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1886" s="8">
         <v>60004</v>
       </c>
@@ -40833,8 +40941,14 @@
       <c r="C1886" s="8" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="1887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1886" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1886" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1887" s="8">
         <v>60004</v>
       </c>
@@ -40844,8 +40958,14 @@
       <c r="C1887" s="8" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="1888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1887" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1887" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1888" s="8">
         <v>60004</v>
       </c>
@@ -40855,8 +40975,14 @@
       <c r="C1888" s="8" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="1889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1888" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1888" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1889" s="8">
         <v>60004</v>
       </c>
@@ -40866,8 +40992,17 @@
       <c r="C1889" s="8" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1889" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1889" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1889" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1890" s="8">
         <v>59229</v>
       </c>
@@ -40877,8 +41012,14 @@
       <c r="C1890" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1891" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1890" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1890" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1891" s="8">
         <v>59229</v>
       </c>
@@ -40888,8 +41029,14 @@
       <c r="C1891" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1892" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1891" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1891" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1892" s="8">
         <v>59229</v>
       </c>
@@ -40899,8 +41046,14 @@
       <c r="C1892" s="8" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="1893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1892" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1892" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1893" s="8">
         <v>59229</v>
       </c>
@@ -40910,8 +41063,17 @@
       <c r="C1893" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1893" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1893" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1893" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1894" s="8">
         <v>59229</v>
       </c>
@@ -40921,8 +41083,14 @@
       <c r="C1894" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1894" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1894" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1895" s="8">
         <v>59229</v>
       </c>
@@ -40932,8 +41100,17 @@
       <c r="C1895" s="8" t="s">
         <v>2449</v>
       </c>
-    </row>
-    <row r="1896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1895" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1895" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1895" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1896" s="8">
         <v>59229</v>
       </c>
@@ -40943,8 +41120,14 @@
       <c r="C1896" s="8" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="1897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1896" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1896" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1897" s="8">
         <v>59229</v>
       </c>
@@ -40954,8 +41137,14 @@
       <c r="C1897" s="8" t="s">
         <v>2450</v>
       </c>
-    </row>
-    <row r="1898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1897" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1897" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1898" s="8">
         <v>59229</v>
       </c>
@@ -40965,8 +41154,14 @@
       <c r="C1898" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1898" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1898" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1899" s="8">
         <v>59229</v>
       </c>
@@ -40976,8 +41171,14 @@
       <c r="C1899" s="8" t="s">
         <v>1647</v>
       </c>
-    </row>
-    <row r="1900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1899" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1899" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1900" s="8">
         <v>59229</v>
       </c>
@@ -40987,8 +41188,14 @@
       <c r="C1900" s="8" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="1901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1900" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1900" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1901" s="8">
         <v>59229</v>
       </c>
@@ -40998,8 +41205,14 @@
       <c r="C1901" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="1902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1901" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1901" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1902" s="8">
         <v>59229</v>
       </c>
@@ -41009,8 +41222,14 @@
       <c r="C1902" s="8" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="1903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1902" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1902" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1903" s="8">
         <v>59229</v>
       </c>
@@ -41020,8 +41239,17 @@
       <c r="C1903" s="8" t="s">
         <v>2451</v>
       </c>
-    </row>
-    <row r="1904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1903" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1903" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I1903" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1904" s="8">
         <v>59229</v>
       </c>
@@ -41031,8 +41259,14 @@
       <c r="C1904" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1904" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1904" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1905" s="8">
         <v>59229</v>
       </c>
@@ -41042,8 +41276,14 @@
       <c r="C1905" s="8" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="1906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1905" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1905" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1906" s="8">
         <v>59229</v>
       </c>
@@ -41053,8 +41293,14 @@
       <c r="C1906" s="8" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="1907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1906" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1906" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1907" s="8">
         <v>59229</v>
       </c>
@@ -41064,8 +41310,14 @@
       <c r="C1907" s="8" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="1908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1907" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1907" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1908" s="8">
         <v>59229</v>
       </c>
@@ -41075,8 +41327,14 @@
       <c r="C1908" s="8" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="1909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1908" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1908" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1909" s="8">
         <v>59229</v>
       </c>
@@ -41086,8 +41344,14 @@
       <c r="C1909" s="8" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="1910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1909" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1909" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1910" s="8">
         <v>59229</v>
       </c>
@@ -41097,8 +41361,14 @@
       <c r="C1910" s="8" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="1911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1910" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1910" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1911" s="8">
         <v>59229</v>
       </c>
@@ -41108,8 +41378,14 @@
       <c r="C1911" s="8" t="s">
         <v>2452</v>
       </c>
-    </row>
-    <row r="1912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1911" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1911" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1912" s="8">
         <v>59229</v>
       </c>
@@ -41119,8 +41395,14 @@
       <c r="C1912" s="8" t="s">
         <v>1650</v>
       </c>
-    </row>
-    <row r="1913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1912" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1912" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1913" s="8">
         <v>59229</v>
       </c>
@@ -41130,8 +41412,14 @@
       <c r="C1913" s="8" t="s">
         <v>2453</v>
       </c>
-    </row>
-    <row r="1914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1913" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1913" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1914" s="8">
         <v>58774</v>
       </c>
@@ -41141,8 +41429,14 @@
       <c r="C1914" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1914" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1914" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1915" s="8">
         <v>58774</v>
       </c>
@@ -41152,8 +41446,14 @@
       <c r="C1915" s="8" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="1916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1915" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1915" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1916" s="8">
         <v>58774</v>
       </c>
@@ -41163,8 +41463,14 @@
       <c r="C1916" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1916" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1916" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1917" s="8">
         <v>58774</v>
       </c>
@@ -41174,8 +41480,14 @@
       <c r="C1917" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1917" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1917" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1918" s="8">
         <v>58774</v>
       </c>
@@ -41185,8 +41497,14 @@
       <c r="C1918" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1918" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1918" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1919" s="8">
         <v>58774</v>
       </c>
@@ -41196,8 +41514,14 @@
       <c r="C1919" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1919" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1919" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1920" s="8">
         <v>58774</v>
       </c>
@@ -41207,8 +41531,14 @@
       <c r="C1920" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1920" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1920" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1921" s="8">
         <v>58774</v>
       </c>
@@ -41218,8 +41548,14 @@
       <c r="C1921" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1921" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1921" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1922" s="8">
         <v>58774</v>
       </c>
@@ -41229,8 +41565,14 @@
       <c r="C1922" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1922" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1922" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1923" s="8">
         <v>58774</v>
       </c>
@@ -41240,8 +41582,14 @@
       <c r="C1923" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1923" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1923" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1924" s="8">
         <v>58774</v>
       </c>
@@ -41251,8 +41599,14 @@
       <c r="C1924" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1924" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1924" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1925" s="8">
         <v>58774</v>
       </c>
@@ -41262,8 +41616,14 @@
       <c r="C1925" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1925" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1925" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1926" s="8">
         <v>58774</v>
       </c>
@@ -41273,8 +41633,14 @@
       <c r="C1926" s="8" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1926" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1926" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1927" s="8">
         <v>58774</v>
       </c>
@@ -41284,8 +41650,14 @@
       <c r="C1927" s="8" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="1928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1927" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1927" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1928" s="8">
         <v>58774</v>
       </c>
@@ -41295,8 +41667,14 @@
       <c r="C1928" s="8" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="1929" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1928" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1928" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1929" s="8">
         <v>58774</v>
       </c>
@@ -41306,8 +41684,14 @@
       <c r="C1929" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="1930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1929" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1929" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1930" s="8">
         <v>58774</v>
       </c>
@@ -41317,8 +41701,14 @@
       <c r="C1930" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1931" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1930" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1930" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1931" s="8">
         <v>58774</v>
       </c>
@@ -41328,8 +41718,14 @@
       <c r="C1931" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1932" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1931" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1931" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1932" s="8">
         <v>58774</v>
       </c>
@@ -41339,8 +41735,14 @@
       <c r="C1932" s="8" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="1933" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1932" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1932" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1933" s="8">
         <v>58774</v>
       </c>
@@ -41350,8 +41752,14 @@
       <c r="C1933" s="8" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="1934" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1933" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1933" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1934" s="8">
         <v>58774</v>
       </c>
@@ -41361,8 +41769,14 @@
       <c r="C1934" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1935" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1934" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1934" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1935" s="8">
         <v>58774</v>
       </c>
@@ -41372,8 +41786,14 @@
       <c r="C1935" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1936" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1935" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1935" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1936" s="8">
         <v>58774</v>
       </c>
@@ -41383,8 +41803,14 @@
       <c r="C1936" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="1937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1936" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1936" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1937" s="8">
         <v>58774</v>
       </c>
@@ -41394,8 +41820,14 @@
       <c r="C1937" s="8" t="s">
         <v>2459</v>
       </c>
-    </row>
-    <row r="1938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1937" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1937" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1938" s="8">
         <v>60098</v>
       </c>
@@ -41406,7 +41838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1939" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1939" s="8">
         <v>60098</v>
       </c>
@@ -41417,7 +41849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1940" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1940" s="8">
         <v>60098</v>
       </c>
@@ -41428,7 +41860,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1941" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1941" s="8">
         <v>60098</v>
       </c>
@@ -41439,7 +41871,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1942" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1942" s="8">
         <v>60098</v>
       </c>
@@ -41450,7 +41882,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="1943" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1943" s="8">
         <v>60098</v>
       </c>
@@ -41461,7 +41893,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1944" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1944" s="8">
         <v>60098</v>
       </c>
@@ -41472,7 +41904,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="1945" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1945" s="8">
         <v>60098</v>
       </c>
@@ -41483,7 +41915,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="1946" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1946" s="8">
         <v>60098</v>
       </c>
@@ -41494,7 +41926,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="1947" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1947" s="8">
         <v>60098</v>
       </c>
@@ -41505,7 +41937,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="1948" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1948" s="8">
         <v>60098</v>
       </c>
@@ -41516,7 +41948,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="1949" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1949" s="8">
         <v>60098</v>
       </c>
@@ -41527,7 +41959,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="1950" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1950" s="8">
         <v>60098</v>
       </c>
@@ -41538,7 +41970,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="1951" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1951" s="8">
         <v>60098</v>
       </c>
@@ -41549,7 +41981,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="1952" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1952" s="8">
         <v>60098</v>
       </c>

--- a/zs/0715/valid_entities_0715_llama3-70b_prompt1.xlsx
+++ b/zs/0715/valid_entities_0715_llama3-70b_prompt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Working\hp-extractor\zs\0715\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1ACD4B-AA1B-4A6A-A8C6-45857816BFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42641BFF-3495-4EE6-BDDD-24817C26DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27330" yWindow="0" windowWidth="10305" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25680" yWindow="0" windowWidth="11685" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities_0312_prompt1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8480" uniqueCount="2593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8719" uniqueCount="2595">
   <si>
     <t>doc_id</t>
   </si>
@@ -7815,6 +7815,12 @@
   </si>
   <si>
     <t>explicitly states human cases</t>
+  </si>
+  <si>
+    <t>does not host, not reported as positive</t>
+  </si>
+  <si>
+    <t>should be Host</t>
   </si>
 </sst>
 </file>
@@ -8348,8 +8354,8 @@
   <dimension ref="A1:AA2223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1898" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1911" sqref="J1911"/>
+      <pane ySplit="1" topLeftCell="A2018" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2044" sqref="A2044"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41810,7 +41816,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1937" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1937" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1937" s="8">
         <v>58774</v>
       </c>
@@ -41827,7 +41833,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1938" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1938" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1938" s="8">
         <v>60098</v>
       </c>
@@ -41837,8 +41843,14 @@
       <c r="C1938" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1939" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1938" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1938" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1939" s="8">
         <v>60098</v>
       </c>
@@ -41848,8 +41860,14 @@
       <c r="C1939" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1940" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1939" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1939" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1940" s="8">
         <v>60098</v>
       </c>
@@ -41859,8 +41877,14 @@
       <c r="C1940" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1941" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1940" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1940" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1941" s="8">
         <v>60098</v>
       </c>
@@ -41870,8 +41894,14 @@
       <c r="C1941" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1942" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1941" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1941" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1942" s="8">
         <v>60098</v>
       </c>
@@ -41881,8 +41911,17 @@
       <c r="C1942" s="8" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="1943" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1942" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1942" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I1942" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1943" s="8">
         <v>60098</v>
       </c>
@@ -41892,8 +41931,14 @@
       <c r="C1943" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1944" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1943" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1943" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1944" s="8">
         <v>60098</v>
       </c>
@@ -41903,8 +41948,14 @@
       <c r="C1944" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="1945" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1944" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1944" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1945" s="8">
         <v>60098</v>
       </c>
@@ -41914,8 +41965,14 @@
       <c r="C1945" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="1946" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1945" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1945" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1946" s="8">
         <v>60098</v>
       </c>
@@ -41925,8 +41982,14 @@
       <c r="C1946" s="8" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="1947" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1946" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1946" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1947" s="8">
         <v>60098</v>
       </c>
@@ -41936,8 +41999,14 @@
       <c r="C1947" s="8" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="1948" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1947" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1947" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1948" s="8">
         <v>60098</v>
       </c>
@@ -41947,8 +42016,14 @@
       <c r="C1948" s="8" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="1949" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1948" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1948" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1949" s="8">
         <v>60098</v>
       </c>
@@ -41958,8 +42033,14 @@
       <c r="C1949" s="8" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="1950" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1949" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1949" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1950" s="8">
         <v>60098</v>
       </c>
@@ -41969,8 +42050,14 @@
       <c r="C1950" s="8" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="1951" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1950" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1950" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1951" s="8">
         <v>60098</v>
       </c>
@@ -41980,8 +42067,14 @@
       <c r="C1951" s="8" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1952" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1951" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1951" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1952" s="8">
         <v>60098</v>
       </c>
@@ -41991,8 +42084,14 @@
       <c r="C1952" s="8" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="1953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1952" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1952" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1953" s="8">
         <v>60098</v>
       </c>
@@ -42002,8 +42101,14 @@
       <c r="C1953" s="8" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="1954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1953" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1953" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1954" s="8">
         <v>60098</v>
       </c>
@@ -42013,8 +42118,14 @@
       <c r="C1954" s="8" t="s">
         <v>2461</v>
       </c>
-    </row>
-    <row r="1955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1954" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1954" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1955" s="8">
         <v>60098</v>
       </c>
@@ -42024,8 +42135,14 @@
       <c r="C1955" s="8" t="s">
         <v>2461</v>
       </c>
-    </row>
-    <row r="1956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1955" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1955" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1956" s="8">
         <v>60098</v>
       </c>
@@ -42035,8 +42152,17 @@
       <c r="C1956" s="8" t="s">
         <v>2463</v>
       </c>
-    </row>
-    <row r="1957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1956" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1956" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1956" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1957" s="8">
         <v>60097</v>
       </c>
@@ -42046,8 +42172,14 @@
       <c r="C1957" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1957" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1957" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1958" s="8">
         <v>60097</v>
       </c>
@@ -42057,8 +42189,14 @@
       <c r="C1958" s="8" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="1959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1958" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1958" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1959" s="8">
         <v>60097</v>
       </c>
@@ -42068,8 +42206,14 @@
       <c r="C1959" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1959" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1959" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1960" s="8">
         <v>60097</v>
       </c>
@@ -42079,8 +42223,17 @@
       <c r="C1960" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1960" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1960" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1960" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1961" s="8">
         <v>60097</v>
       </c>
@@ -42090,8 +42243,14 @@
       <c r="C1961" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1961" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1961" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1962" s="8">
         <v>60097</v>
       </c>
@@ -42101,8 +42260,14 @@
       <c r="C1962" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="1963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1962" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1962" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1963" s="8">
         <v>60097</v>
       </c>
@@ -42112,8 +42277,14 @@
       <c r="C1963" s="8" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="1964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1963" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1963" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1964" s="8">
         <v>60097</v>
       </c>
@@ -42123,8 +42294,14 @@
       <c r="C1964" s="8" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="1965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1964" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1964" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1965" s="8">
         <v>60097</v>
       </c>
@@ -42134,8 +42311,14 @@
       <c r="C1965" s="8" t="s">
         <v>2465</v>
       </c>
-    </row>
-    <row r="1966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1965" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1965" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1966" s="8">
         <v>60097</v>
       </c>
@@ -42145,8 +42328,14 @@
       <c r="C1966" s="8" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1966" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1966" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1967" s="8">
         <v>60097</v>
       </c>
@@ -42156,8 +42345,14 @@
       <c r="C1967" s="8" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="1968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1967" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1967" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1968" s="8">
         <v>60097</v>
       </c>
@@ -42167,8 +42362,14 @@
       <c r="C1968" s="8" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="1969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1968" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1968" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1969" s="8">
         <v>60097</v>
       </c>
@@ -42178,8 +42379,14 @@
       <c r="C1969" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1969" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1969" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1970" s="8">
         <v>60097</v>
       </c>
@@ -42189,8 +42396,14 @@
       <c r="C1970" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1970" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1970" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1971" s="8">
         <v>60097</v>
       </c>
@@ -42200,8 +42413,14 @@
       <c r="C1971" s="8" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="1972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1971" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1971" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1972" s="8">
         <v>60097</v>
       </c>
@@ -42211,8 +42430,14 @@
       <c r="C1972" s="8" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1972" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1972" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1973" s="8">
         <v>60097</v>
       </c>
@@ -42222,8 +42447,14 @@
       <c r="C1973" s="8" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="1974" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1973" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1973" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1974" s="8">
         <v>60097</v>
       </c>
@@ -42233,8 +42464,14 @@
       <c r="C1974" s="8" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="1975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1974" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1974" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1975" s="8">
         <v>60097</v>
       </c>
@@ -42244,8 +42481,14 @@
       <c r="C1975" s="8" t="s">
         <v>2466</v>
       </c>
-    </row>
-    <row r="1976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1975" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1975" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1976" s="8">
         <v>60097</v>
       </c>
@@ -42255,8 +42498,14 @@
       <c r="C1976" s="8" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="1977" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1976" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1976" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1977" s="8">
         <v>60097</v>
       </c>
@@ -42266,8 +42515,14 @@
       <c r="C1977" s="8" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="1978" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1977" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1977" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1978" s="8">
         <v>60097</v>
       </c>
@@ -42277,8 +42532,14 @@
       <c r="C1978" s="8" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="1979" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1978" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1978" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1979" s="8">
         <v>60097</v>
       </c>
@@ -42288,8 +42549,14 @@
       <c r="C1979" s="8" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="1980" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1979" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1979" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1980" s="8">
         <v>60097</v>
       </c>
@@ -42299,8 +42566,14 @@
       <c r="C1980" s="8" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="1981" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1980" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1980" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1981" s="8">
         <v>60097</v>
       </c>
@@ -42310,8 +42583,14 @@
       <c r="C1981" s="8" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="1982" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1981" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1981" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1982" s="8">
         <v>60097</v>
       </c>
@@ -42321,8 +42600,14 @@
       <c r="C1982" s="8" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="1983" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1982" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1982" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1983" s="8">
         <v>60097</v>
       </c>
@@ -42332,8 +42617,14 @@
       <c r="C1983" s="8" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="1984" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1983" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1983" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1984" s="8">
         <v>60097</v>
       </c>
@@ -42343,8 +42634,14 @@
       <c r="C1984" s="8" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="1985" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1984" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1984" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1985" s="8">
         <v>57815</v>
       </c>
@@ -42354,8 +42651,14 @@
       <c r="C1985" s="8" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="1986" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1985" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1985" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1986" s="8">
         <v>57815</v>
       </c>
@@ -42365,8 +42668,14 @@
       <c r="C1986" s="8" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="1987" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1986" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1986" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1987" s="8">
         <v>57815</v>
       </c>
@@ -42376,8 +42685,17 @@
       <c r="C1987" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1988" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1987" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1987" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I1987" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1988" s="8">
         <v>57815</v>
       </c>
@@ -42387,8 +42705,14 @@
       <c r="C1988" s="8" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="1989" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1988" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1988" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1989" s="8">
         <v>57815</v>
       </c>
@@ -42398,8 +42722,14 @@
       <c r="C1989" s="8" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="1990" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1989" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1989" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1990" s="8">
         <v>57815</v>
       </c>
@@ -42409,8 +42739,14 @@
       <c r="C1990" s="8" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="1991" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1990" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1990" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1991" s="8">
         <v>57815</v>
       </c>
@@ -42420,8 +42756,14 @@
       <c r="C1991" s="8" t="s">
         <v>2470</v>
       </c>
-    </row>
-    <row r="1992" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1991" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1991" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1992" s="8">
         <v>57815</v>
       </c>
@@ -42431,8 +42773,14 @@
       <c r="C1992" s="8" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="1993" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1992" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1992" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1993" s="8">
         <v>57815</v>
       </c>
@@ -42442,8 +42790,14 @@
       <c r="C1993" s="8" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="1994" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1993" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1993" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1994" s="8">
         <v>57815</v>
       </c>
@@ -42453,8 +42807,14 @@
       <c r="C1994" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1995" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1994" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1994" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1995" s="8">
         <v>57815</v>
       </c>
@@ -42464,8 +42824,14 @@
       <c r="C1995" s="8" t="s">
         <v>2473</v>
       </c>
-    </row>
-    <row r="1996" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1995" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1995" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1996" s="8">
         <v>57815</v>
       </c>
@@ -42475,8 +42841,17 @@
       <c r="C1996" s="8" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="1997" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1996" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1996" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I1996" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1997" s="8">
         <v>57815</v>
       </c>
@@ -42486,8 +42861,14 @@
       <c r="C1997" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="1998" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1997" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1997" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1998" s="8">
         <v>57815</v>
       </c>
@@ -42497,8 +42878,14 @@
       <c r="C1998" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1999" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1998" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1998" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1999" s="8">
         <v>57815</v>
       </c>
@@ -42508,8 +42895,14 @@
       <c r="C1999" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2000" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1999" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G1999" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2000" s="8">
         <v>57815</v>
       </c>
@@ -42519,8 +42912,17 @@
       <c r="C2000" s="8" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="2001" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2000" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2000" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I2000" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2001" s="8">
         <v>57815</v>
       </c>
@@ -42530,8 +42932,14 @@
       <c r="C2001" s="8" t="s">
         <v>2473</v>
       </c>
-    </row>
-    <row r="2002" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2001" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2001" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2002" s="8">
         <v>57815</v>
       </c>
@@ -42541,8 +42949,14 @@
       <c r="C2002" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2003" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2002" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2002" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2003" s="8">
         <v>57815</v>
       </c>
@@ -42552,8 +42966,14 @@
       <c r="C2003" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2004" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2003" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2003" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2004" s="8">
         <v>57815</v>
       </c>
@@ -42563,8 +42983,14 @@
       <c r="C2004" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2005" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2004" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2004" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2005" s="8">
         <v>57815</v>
       </c>
@@ -42574,8 +43000,14 @@
       <c r="C2005" s="8" t="s">
         <v>2473</v>
       </c>
-    </row>
-    <row r="2006" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2005" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2005" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2006" s="8">
         <v>57815</v>
       </c>
@@ -42585,8 +43017,14 @@
       <c r="C2006" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2007" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2006" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2006" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2007" s="8">
         <v>57815</v>
       </c>
@@ -42596,8 +43034,14 @@
       <c r="C2007" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2008" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2007" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2007" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2008" s="8">
         <v>57815</v>
       </c>
@@ -42607,8 +43051,14 @@
       <c r="C2008" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2009" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2008" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2008" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2009" s="8">
         <v>57815</v>
       </c>
@@ -42618,8 +43068,14 @@
       <c r="C2009" s="8" t="s">
         <v>2473</v>
       </c>
-    </row>
-    <row r="2010" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2009" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2009" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2010" s="8">
         <v>57815</v>
       </c>
@@ -42629,8 +43085,14 @@
       <c r="C2010" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2011" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2010" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2010" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2011" s="8">
         <v>57815</v>
       </c>
@@ -42640,8 +43102,14 @@
       <c r="C2011" s="8" t="s">
         <v>2477</v>
       </c>
-    </row>
-    <row r="2012" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2011" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2011" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2012" s="8">
         <v>57815</v>
       </c>
@@ -42651,8 +43119,14 @@
       <c r="C2012" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2013" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2012" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2012" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2013" s="8">
         <v>57815</v>
       </c>
@@ -42662,8 +43136,14 @@
       <c r="C2013" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2014" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2013" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2013" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2014" s="8">
         <v>57815</v>
       </c>
@@ -42673,8 +43153,14 @@
       <c r="C2014" s="8" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="2015" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2014" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2014" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2015" s="8">
         <v>57815</v>
       </c>
@@ -42684,8 +43170,14 @@
       <c r="C2015" s="8" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="2016" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2015" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2015" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2016" s="8">
         <v>57815</v>
       </c>
@@ -42695,8 +43187,14 @@
       <c r="C2016" s="8" t="s">
         <v>2479</v>
       </c>
-    </row>
-    <row r="2017" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2016" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2016" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2017" s="8">
         <v>57815</v>
       </c>
@@ -42706,8 +43204,14 @@
       <c r="C2017" s="8" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="2018" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2017" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2017" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2018" s="8">
         <v>57815</v>
       </c>
@@ -42717,8 +43221,14 @@
       <c r="C2018" s="8" t="s">
         <v>2482</v>
       </c>
-    </row>
-    <row r="2019" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2018" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2018" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2019" s="8">
         <v>57815</v>
       </c>
@@ -42728,8 +43238,14 @@
       <c r="C2019" s="8" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="2020" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2019" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2019" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2020" s="8">
         <v>57815</v>
       </c>
@@ -42739,8 +43255,14 @@
       <c r="C2020" s="8" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="2021" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2020" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2020" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2021" s="8">
         <v>57899</v>
       </c>
@@ -42750,8 +43272,14 @@
       <c r="C2021" s="8" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="2022" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2021" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2021" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2022" s="8">
         <v>57899</v>
       </c>
@@ -42761,8 +43289,14 @@
       <c r="C2022" s="8" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="2023" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2022" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2022" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2023" s="8">
         <v>57899</v>
       </c>
@@ -42772,8 +43306,14 @@
       <c r="C2023" s="8" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="2024" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2023" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2023" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2024" s="8">
         <v>57899</v>
       </c>
@@ -42783,8 +43323,14 @@
       <c r="C2024" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2025" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2024" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2024" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2025" s="8">
         <v>57899</v>
       </c>
@@ -42794,8 +43340,17 @@
       <c r="C2025" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2026" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2025" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2025" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I2025" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2026" s="8">
         <v>57899</v>
       </c>
@@ -42805,8 +43360,14 @@
       <c r="C2026" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2027" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2026" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2026" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2027" s="8">
         <v>57899</v>
       </c>
@@ -42816,8 +43377,14 @@
       <c r="C2027" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2028" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2027" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2027" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2028" s="8">
         <v>57899</v>
       </c>
@@ -42827,8 +43394,14 @@
       <c r="C2028" s="8" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="2029" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2028" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2028" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2029" s="8">
         <v>57899</v>
       </c>
@@ -42838,8 +43411,14 @@
       <c r="C2029" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2030" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2029" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2029" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2030" s="8">
         <v>57899</v>
       </c>
@@ -42849,8 +43428,14 @@
       <c r="C2030" s="8" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="2031" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2030" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2030" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2031" s="8">
         <v>57899</v>
       </c>
@@ -42860,8 +43445,14 @@
       <c r="C2031" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2032" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2031" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2031" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2032" s="8">
         <v>57899</v>
       </c>
@@ -42871,8 +43462,14 @@
       <c r="C2032" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2033" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2032" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2032" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2033" s="8">
         <v>57899</v>
       </c>
@@ -42882,8 +43479,14 @@
       <c r="C2033" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2034" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2033" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2033" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2034" s="8">
         <v>57899</v>
       </c>
@@ -42893,8 +43496,14 @@
       <c r="C2034" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2035" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2034" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2034" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2035" s="8">
         <v>57899</v>
       </c>
@@ -42904,8 +43513,14 @@
       <c r="C2035" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2036" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2035" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2035" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2036" s="8">
         <v>57899</v>
       </c>
@@ -42915,8 +43530,14 @@
       <c r="C2036" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2037" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2036" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2036" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2037" s="8">
         <v>57899</v>
       </c>
@@ -42926,8 +43547,14 @@
       <c r="C2037" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2038" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2037" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2037" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2038" s="8">
         <v>57899</v>
       </c>
@@ -42937,8 +43564,14 @@
       <c r="C2038" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2039" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2038" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2038" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2039" s="8">
         <v>57899</v>
       </c>
@@ -42948,8 +43581,14 @@
       <c r="C2039" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2040" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2039" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2039" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2040" s="8">
         <v>57899</v>
       </c>
@@ -42959,8 +43598,14 @@
       <c r="C2040" s="8" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="2041" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2040" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2040" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2041" s="8">
         <v>57899</v>
       </c>
@@ -42970,8 +43615,14 @@
       <c r="C2041" s="8" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="2042" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2041" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2041" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2042" s="8">
         <v>59668</v>
       </c>
@@ -42981,8 +43632,14 @@
       <c r="C2042" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2043" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2042" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2042" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2043" s="8">
         <v>59668</v>
       </c>
@@ -42992,8 +43649,17 @@
       <c r="C2043" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2044" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2043" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2043" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I2043" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2044" s="8">
         <v>59668</v>
       </c>
@@ -43003,8 +43669,14 @@
       <c r="C2044" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2045" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2044" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2044" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2045" s="8">
         <v>59668</v>
       </c>
@@ -43014,8 +43686,17 @@
       <c r="C2045" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2046" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2045" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2045" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I2045" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2046" s="8">
         <v>59668</v>
       </c>
@@ -43025,8 +43706,14 @@
       <c r="C2046" s="8" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="2047" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2046" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2046" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2047" s="8">
         <v>59668</v>
       </c>
@@ -43036,8 +43723,14 @@
       <c r="C2047" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2048" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2047" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2047" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2048" s="8">
         <v>59668</v>
       </c>
@@ -43047,8 +43740,14 @@
       <c r="C2048" s="8" t="s">
         <v>2488</v>
       </c>
-    </row>
-    <row r="2049" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2048" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2048" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2049" s="8">
         <v>59668</v>
       </c>
@@ -43058,8 +43757,14 @@
       <c r="C2049" s="8" t="s">
         <v>1686</v>
       </c>
-    </row>
-    <row r="2050" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2049" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2049" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2050" s="8">
         <v>59668</v>
       </c>
@@ -43069,8 +43774,14 @@
       <c r="C2050" s="8" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="2051" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2050" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2050" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2051" s="8">
         <v>59668</v>
       </c>
@@ -43080,8 +43791,14 @@
       <c r="C2051" s="8" t="s">
         <v>2490</v>
       </c>
-    </row>
-    <row r="2052" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2051" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2051" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2052" s="8">
         <v>59668</v>
       </c>
@@ -43091,8 +43808,14 @@
       <c r="C2052" s="8" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="2053" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2052" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="G2052" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2053" s="8">
         <v>58651</v>
       </c>
@@ -43103,7 +43826,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="2054" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2054" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2054" s="8">
         <v>58651</v>
       </c>
@@ -43114,7 +43837,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="2055" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2055" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2055" s="8">
         <v>58651</v>
       </c>
@@ -43125,7 +43848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2056" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2056" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2056" s="8">
         <v>58651</v>
       </c>
@@ -43136,7 +43859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2057" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2057" s="8">
         <v>58651</v>
       </c>
@@ -43147,7 +43870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2058" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2058" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2058" s="8">
         <v>58651</v>
       </c>
@@ -43158,7 +43881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2059" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2059" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2059" s="8">
         <v>58651</v>
       </c>
@@ -43169,7 +43892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2060" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2060" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2060" s="8">
         <v>58651</v>
       </c>
@@ -43180,7 +43903,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="2061" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2061" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2061" s="8">
         <v>58651</v>
       </c>
@@ -43191,7 +43914,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="2062" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2062" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2062" s="8">
         <v>58651</v>
       </c>
@@ -43202,7 +43925,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="2063" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2063" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2063" s="8">
         <v>58651</v>
       </c>
@@ -43213,7 +43936,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2064" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2064" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2064" s="8">
         <v>58651</v>
       </c>
